--- a/Student/Modules/02_Queries/Lab/ExcelData/Budgets.xlsx
+++ b/Student/Modules/02_Queries/Lab/ExcelData/Budgets.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19024"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LibertyPowerBI\Modules\02_Queries\Lab\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="19" documentId="A2C8DC86B5978F154A691E9C7CEBDC77F9F6258C" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{4224D889-F11D-4087-B1EC-F36D6B7329E9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense Budgets Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171026"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
     <t>Marketing</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
   </si>
   <si>
     <t>Office Supplies</t>
@@ -45,26 +49,23 @@
     <t>Research &amp; Development</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Q2</t>
   </si>
   <si>
-    <t>Quarter</t>
+    <t>Q3</t>
   </si>
   <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,16 +608,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Budgets" displayName="Budgets" ref="A1:D17" totalsRowShown="0">
-  <autoFilter ref="A1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Budgets" displayName="Budgets" ref="A1:D17" totalsRowShown="0">
+  <autoFilter ref="A1:D17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:D17">
     <sortCondition ref="B1:B17"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Year"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Category"/>
-    <tableColumn id="4" name="Budget" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Budget" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -918,252 +919,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2017</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2017</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2017</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2017</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>7000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2017</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>5000</v>
@@ -1175,4 +1176,163 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085A37566C2E56148B1AE1DF0E2857568" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8423242b38e20eeecec3b56a0ac8a5c5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2978fd79-a034-4097-895d-e527fabdbf11" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbeed23aba7b5be4b525757c036a6e11" ns2:_="">
+    <xsd:import namespace="2978fd79-a034-4097-895d-e527fabdbf11"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2978fd79-a034-4097-895d-e527fabdbf11" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53750B2-2417-4E65-81E3-E9E7EA690CAA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044568EA-0941-4756-8B28-ABE3B32F70CF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F7F9E-554C-4A77-B5BA-6FE3683A929B}"/>
 </file>